--- a/アカウント登録_結合テスト.xlsx
+++ b/アカウント登録_結合テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{222D9304-E556-41AB-A048-102A5C85EDD9}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22A4172E-DD9E-4DFB-B70C-70850B0510B5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="123">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -299,22 +299,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力された値に対して●で表示されていない</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.XAMPPのMySQLを停止の状態にする</t>
     <rPh sb="14" eb="16">
       <t>テイシ</t>
@@ -995,10 +979,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>同じメールアドレスで登録できないようになっているか</t>
     <rPh sb="0" eb="1">
       <t>オナ</t>
@@ -2007,6 +1987,19 @@
     </rPh>
     <rPh sb="45" eb="47">
       <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー画面に赤字で「アクセス権限がありません。」</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2083,7 +2076,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2103,9 +2096,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2884,7 +2874,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2895,14 +2885,14 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -2935,7 +2925,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45797</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2981,19 +2971,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -3003,7 +2993,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3016,7 +3006,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3032,19 +3022,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="G11" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -3054,7 +3044,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3067,7 +3057,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3083,19 +3073,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -3105,7 +3095,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3118,7 +3108,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3134,19 +3124,19 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -3156,7 +3146,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3169,7 +3159,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3185,19 +3175,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -3207,7 +3197,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3220,7 +3210,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3236,19 +3226,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -3258,7 +3248,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3271,7 +3261,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -3287,19 +3277,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -3309,7 +3299,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -3322,7 +3312,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3338,19 +3328,19 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G29" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -3360,7 +3350,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -3373,7 +3363,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -3389,19 +3379,19 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -3411,7 +3401,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -3424,7 +3414,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -3440,19 +3430,19 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G35" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -3462,7 +3452,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3475,7 +3465,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -3491,19 +3481,19 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G38" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -3513,7 +3503,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -3526,7 +3516,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -3542,19 +3532,19 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G41" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -3564,7 +3554,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3577,7 +3567,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3593,19 +3583,19 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G44" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -3615,7 +3605,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3628,7 +3618,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3644,19 +3634,19 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G47" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -3666,7 +3656,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3679,7 +3669,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3695,19 +3685,19 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G50" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -3717,7 +3707,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3730,7 +3720,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3746,19 +3736,19 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" s="4">
-        <v>45806</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -3768,7 +3758,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -3781,7 +3771,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3797,19 +3787,19 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G56" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -3819,7 +3809,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3832,7 +3822,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -3854,13 +3844,13 @@
         <v>20</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G59" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -3886,19 +3876,19 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="G61" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -3908,7 +3898,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -3924,19 +3914,19 @@
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="G63" s="4">
-        <v>45991</v>
+        <v>46002</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I63" s="2"/>
     </row>
@@ -3968,8 +3958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72C48DE-86F6-464D-98C0-F818F0ED9625}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="E7" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3980,14 +3970,14 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -4020,7 +4010,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45797</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4064,19 +4054,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -4086,7 +4076,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
@@ -4099,7 +4089,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4115,19 +4105,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -4137,7 +4127,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
@@ -4150,7 +4140,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4166,19 +4156,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -4188,7 +4178,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
@@ -4201,7 +4191,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4217,19 +4207,19 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -4239,7 +4229,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -4252,7 +4242,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4268,23 +4258,21 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
@@ -4292,7 +4280,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
@@ -4305,7 +4293,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -4321,19 +4309,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -4343,7 +4331,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
@@ -4356,7 +4344,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -4372,19 +4360,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -4394,7 +4382,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="4"/>
@@ -4407,7 +4395,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -4423,19 +4411,19 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -4445,7 +4433,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
@@ -4458,7 +4446,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -4474,19 +4462,19 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -4496,7 +4484,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
@@ -4509,7 +4497,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -4525,19 +4513,19 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -4547,7 +4535,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
@@ -4560,7 +4548,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -4576,19 +4564,19 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -4598,7 +4586,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
@@ -4611,7 +4599,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -4627,19 +4615,19 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G41" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I41" s="5"/>
     </row>
@@ -4649,7 +4637,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -4662,7 +4650,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -4678,19 +4666,19 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="G44" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I44" s="5"/>
     </row>
@@ -4700,7 +4688,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -4722,13 +4710,13 @@
         <v>20</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G46" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -4754,19 +4742,19 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G48" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -4776,7 +4764,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -4792,19 +4780,19 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="G50" s="4">
-        <v>45991</v>
+        <v>46002</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -4835,8 +4823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="79" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4847,14 +4835,14 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
@@ -4887,7 +4875,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45797</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4933,19 +4921,19 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G9" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -4955,7 +4943,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4963,7 +4951,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="7">
+      <c r="A11" s="2">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -4971,25 +4959,29 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="G11" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="7"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4997,7 +4989,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7">
+      <c r="A13" s="2">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -5005,20 +4997,24 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="G13" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="7"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5029,7 +5025,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="7">
+      <c r="A15" s="2">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5037,25 +5033,29 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="G15" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -5074,16 +5074,16 @@
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G17" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -5095,7 +5095,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -5103,12 +5103,12 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -5124,19 +5124,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G20" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -5146,7 +5146,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -5154,12 +5154,12 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="7"/>
+      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -5175,19 +5175,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G23" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -5197,7 +5197,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -5213,19 +5213,19 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G25" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -5249,19 +5249,19 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="G27" s="4">
-        <v>45991</v>
+        <v>46002</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I27" s="2"/>
     </row>
